--- a/r2_scaffold.xlsx
+++ b/r2_scaffold.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\@gitwork\csr2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="90" windowWidth="19395" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="r2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="3"/>
@@ -169,10 +174,6 @@
   <si>
     <t>returnComment</t>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>:text</t>
-    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>sendingComment</t>
@@ -702,12 +703,52 @@
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>済</t>
+    <rPh sb="0" eb="1">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>到着</t>
+    <rPh sb="0" eb="2">
+      <t>トウチャク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>到着日</t>
+    <rPh sb="0" eb="3">
+      <t>トウチャクビ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Arrival</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>arrivalDate</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>到着コメント</t>
+    <rPh sb="0" eb="2">
+      <t>トウチャク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>arrivalComment</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -886,12 +927,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -933,7 +977,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -968,7 +1012,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1177,13 +1221,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
@@ -1515,7 +1559,7 @@
     <col min="16133" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="6" customFormat="1">
+    <row r="1" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -1547,23 +1591,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="6" customFormat="1"/>
-    <row r="3" spans="1:23">
+    <row r="2" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" s="8" customFormat="1" ht="12">
+    <row r="4" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="10"/>
@@ -1581,12 +1625,12 @@
       <c r="U4" s="10"/>
       <c r="V4" s="12"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
@@ -1625,23 +1669,23 @@
         <v xml:space="preserve">rails generate scaffold Company name:string category:string </v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="8" customFormat="1" ht="12">
+    <row r="6" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="10"/>
@@ -1655,12 +1699,12 @@
       <c r="U6" s="10"/>
       <c r="V6" s="12"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -1707,11 +1751,11 @@
         <v xml:space="preserve">rails generate scaffold Location postcode:string address:string phoneNo:string destinationName:string </v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="8" customFormat="1" ht="12">
+    <row r="8" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="10"/>
@@ -1731,12 +1775,12 @@
       <c r="U8" s="10"/>
       <c r="V8" s="12"/>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>18</v>
@@ -1769,11 +1813,11 @@
         <v xml:space="preserve">rails generate scaffold Enginestatus name:string </v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="8" customFormat="1" ht="12">
+    <row r="10" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="10"/>
@@ -1793,12 +1837,12 @@
       <c r="U10" s="10"/>
       <c r="V10" s="12"/>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>19</v>
@@ -1831,15 +1875,15 @@
         <v xml:space="preserve">rails generate scaffold Businessstatus name:string </v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="8" customFormat="1" ht="12">
+    <row r="12" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="10"/>
@@ -1857,12 +1901,12 @@
       <c r="U12" s="10"/>
       <c r="V12" s="12"/>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>17</v>
@@ -1899,15 +1943,15 @@
         <v xml:space="preserve">rails generate scaffold Engine engineModelName:string salesModelName:string </v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="8" customFormat="1" ht="12">
+    <row r="14" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="10"/>
@@ -1925,25 +1969,25 @@
       <c r="U14" s="10"/>
       <c r="V14" s="12"/>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>1</v>
@@ -1967,51 +2011,53 @@
         <v xml:space="preserve">rails generate scaffold Enginemodel modelcode:string name:string </v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="8" customFormat="1" ht="12">
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10" t="s">
+    <row r="16" spans="1:23" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="F16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="10" t="s">
+      <c r="H18" s="11"/>
+      <c r="I18" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="12"/>
-    </row>
-    <row r="17" spans="1:23" s="13" customFormat="1" ht="12">
-      <c r="F17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="A18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="W18" s="1"/>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="J18" s="11"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="12"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="C19" s="4" t="s">
         <v>32</v>
       </c>
@@ -2020,19 +2066,19 @@
         <v>33</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>34</v>
       </c>
       <c r="H19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="J19" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="2"/>
@@ -2048,160 +2094,180 @@
       <c r="V19" s="2"/>
       <c r="W19" s="1" t="str">
         <f>CONCATENATE($A$1,C19," ",E19,F19,G19,H19,I19,J19,K19,L19,M19,N19,O19,P19,Q19,R19,,S19,T19,U19,V19)</f>
-        <v xml:space="preserve">rails generate scaffold Return returnDate:date returnComment:textsendingComment:text </v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" s="8" customFormat="1" ht="12">
+        <v xml:space="preserve">rails generate scaffold Return returnDate:date returnComment:text sendingComment:text </v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>0</v>
+      </c>
       <c r="E20" s="10" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="10" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="H20" s="11"/>
-      <c r="I20" s="10" t="s">
-        <v>66</v>
-      </c>
+      <c r="I20" s="10"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="K20" s="10"/>
       <c r="L20" s="12"/>
-      <c r="M20" s="10" t="s">
-        <v>68</v>
-      </c>
+      <c r="M20" s="10"/>
       <c r="N20" s="12"/>
-      <c r="O20" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="O20" s="10"/>
       <c r="P20" s="12"/>
-      <c r="Q20" s="10" t="s">
-        <v>72</v>
-      </c>
+      <c r="Q20" s="10"/>
       <c r="R20" s="12"/>
       <c r="S20" s="10"/>
       <c r="T20" s="12"/>
       <c r="U20" s="10"/>
       <c r="V20" s="12"/>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="C21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="E21" s="3" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="2"/>
       <c r="S21" s="3"/>
       <c r="T21" s="2"/>
       <c r="U21" s="3"/>
       <c r="V21" s="2"/>
       <c r="W21" s="1" t="str">
         <f>CONCATENATE($A$1,C21," ",E21,F21,G21,H21,I21,J21,K21,L21,M21,N21,O21,P21,Q21,R21,,S21,T21,U21,V21)</f>
-        <v xml:space="preserve">rails generate scaffold Repair issueNo:string issueDate:date arriveDate:date startDate:date finishDate:date beforeComment:text afterComment:text </v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" s="8" customFormat="1" ht="12">
+        <v xml:space="preserve">rails generate scaffold Arrival arrivalDate:date arrivalComment:text </v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="F22" s="11"/>
-      <c r="G22" s="10"/>
+      <c r="G22" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="H22" s="11"/>
-      <c r="I22" s="10"/>
+      <c r="I22" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J22" s="11"/>
-      <c r="K22" s="10"/>
+      <c r="K22" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="L22" s="12"/>
-      <c r="M22" s="10"/>
+      <c r="M22" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="N22" s="12"/>
-      <c r="O22" s="10"/>
+      <c r="O22" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="P22" s="12"/>
-      <c r="Q22" s="10"/>
+      <c r="Q22" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="R22" s="12"/>
       <c r="S22" s="10"/>
       <c r="T22" s="12"/>
       <c r="U22" s="10"/>
       <c r="V22" s="12"/>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="C23" s="4" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="5"/>
+      <c r="E23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="S23" s="3"/>
       <c r="T23" s="2"/>
       <c r="U23" s="3"/>
       <c r="V23" s="2"/>
       <c r="W23" s="1" t="str">
         <f>CONCATENATE($A$1,C23," ",E23,F23,G23,H23,I23,J23,K23,L23,M23,N23,O23,P23,Q23,R23,,S23,T23,U23,V23)</f>
-        <v xml:space="preserve">rails generate scaffold Repairorder </v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" s="8" customFormat="1" ht="12">
+        <v xml:space="preserve">rails generate scaffold Repair issueNo:string issueDate:date arriveDate:date startDate:date finishDate:date beforeComment:text afterComment:text </v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="10"/>
@@ -2223,12 +2289,14 @@
       <c r="U24" s="10"/>
       <c r="V24" s="12"/>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="D25" s="4"/>
       <c r="E25" s="3"/>
       <c r="F25" s="5"/>
@@ -2250,14 +2318,12 @@
       <c r="V25" s="2"/>
       <c r="W25" s="1" t="str">
         <f>CONCATENATE($A$1,C25," ",E25,F25,G25,H25,I25,J25,K25,L25,M25,N25,O25,P25,Q25,R25,,S25,T25,U25,V25)</f>
-        <v xml:space="preserve">rails generate scaffold  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" s="8" customFormat="1" ht="12">
+        <v xml:space="preserve">rails generate scaffold Repairorder </v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C26" s="9"/>
-      <c r="D26" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D26" s="9"/>
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
       <c r="G26" s="10"/>
@@ -2277,17 +2343,13 @@
       <c r="U26" s="10"/>
       <c r="V26" s="12"/>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="3"/>
       <c r="F27" s="5"/>
       <c r="G27" s="3"/>
@@ -2308,10 +2370,10 @@
       <c r="V27" s="2"/>
       <c r="W27" s="1" t="str">
         <f>CONCATENATE($A$1,C27," ",E27,F27,G27,H27,I27,J27,K27,L27,M27,N27,O27,P27,Q27,R27,,S27,T27,U27,V27)</f>
-        <v xml:space="preserve">rails generate scaffold Shipping </v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" s="8" customFormat="1" ht="12">
+        <v xml:space="preserve">rails generate scaffold  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C28" s="9"/>
       <c r="D28" s="9" t="s">
         <v>0</v>
@@ -2335,37 +2397,41 @@
       <c r="U28" s="10"/>
       <c r="V28" s="12"/>
     </row>
-    <row r="29" spans="1:23">
-      <c r="A29" s="1"/>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="D29" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="5"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="2"/>
+      <c r="H29" s="5"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="2"/>
+      <c r="J29" s="5"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="2"/>
+      <c r="L29" s="5"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="2"/>
+      <c r="N29" s="5"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="2"/>
+      <c r="P29" s="5"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="2"/>
+      <c r="R29" s="5"/>
       <c r="S29" s="3"/>
       <c r="T29" s="2"/>
       <c r="U29" s="3"/>
       <c r="V29" s="2"/>
       <c r="W29" s="1" t="str">
         <f>CONCATENATE($A$1,C29," ",E29,F29,G29,H29,I29,J29,K29,L29,M29,N29,O29,P29,Q29,R29,,S29,T29,U29,V29)</f>
-        <v xml:space="preserve">rails generate scaffold  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
+        <v xml:space="preserve">rails generate scaffold Shipping </v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="4"/>
@@ -2373,11 +2439,11 @@
         <v>0</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="5"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="2"/>
+      <c r="H30" s="5"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="2"/>
+      <c r="J30" s="5"/>
       <c r="K30" s="3"/>
       <c r="L30" s="2"/>
       <c r="M30" s="3"/>
@@ -2392,104 +2458,257 @@
       <c r="V30" s="2"/>
       <c r="W30" s="8"/>
     </row>
-    <row r="31" spans="1:23">
-      <c r="D31" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="W31" s="6" t="str">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="1" t="str">
         <f>CONCATENATE($A$1,C31," ",E31,F31,G31,H31,I31,J31,K31,L31,M31,N31,O31,P31,Q31,R31,,S31,T31,U31,V31)</f>
         <v xml:space="preserve">rails generate scaffold  </v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15" thickBot="1">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="12"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="1" t="str">
+        <f>CONCATENATE($A$1,C33," ",E33,F33,G33,H33,I33,J33,K33,L33,M33,N33,O33,P33,Q33,R33,,S33,T33,U33,V33)</f>
+        <v xml:space="preserve">rails generate scaffold  </v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="12"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="1" t="str">
+        <f>CONCATENATE($A$1,C35," ",E35,F35,G35,H35,I35,J35,K35,L35,M35,N35,O35,P35,Q35,R35,,S35,T35,U35,V35)</f>
+        <v xml:space="preserve">rails generate scaffold  </v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="8"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="D37" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W37" s="6" t="str">
+        <f>CONCATENATE($A$1,C37," ",E37,F37,G37,H37,I37,J37,K37,L37,M37,N37,O37,P37,Q37,R37,,S37,T37,U37,V37)</f>
+        <v xml:space="preserve">rails generate scaffold  </v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="W32" s="13"/>
-    </row>
-    <row r="33" spans="2:23" ht="15" thickBot="1">
-      <c r="B33" s="6" t="s">
+      <c r="C39" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="W39" s="6" t="str">
+        <f>CONCATENATE($A$1,C39," ",E39,F39,G39,H39,I39,J39,K39,L39,M39,N39,O39,P39,Q39,R39,,S39,T39,U39,V39)</f>
+        <v xml:space="preserve">rails generate scaffold rails generate devise:install </v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="W33" s="6" t="str">
-        <f>CONCATENATE($A$1,C33," ",E33,F33,G33,H33,I33,J33,K33,L33,M33,N33,O33,P33,Q33,R33,,S33,T33,U33,V33)</f>
-        <v xml:space="preserve">rails generate scaffold rails generate devise:install </v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" ht="15" thickBot="1">
-      <c r="C34" s="16" t="s">
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C41" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="W34" s="13"/>
-    </row>
-    <row r="35" spans="2:23">
-      <c r="C35" s="6" t="s">
+      <c r="W41" s="6" t="str">
+        <f>CONCATENATE($A$1,C41," ",E41,F41,G41,H41,I41,J41,K41,L41,M41,N41,O41,P41,Q41,R41,,S41,T41,U41,V41)</f>
+        <v xml:space="preserve">rails generate scaffold rails g devise:views </v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C42" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="W35" s="6" t="str">
-        <f>CONCATENATE($A$1,C35," ",E35,F35,G35,H35,I35,J35,K35,L35,M35,N35,O35,P35,Q35,R35,,S35,T35,U35,V35)</f>
-        <v xml:space="preserve">rails generate scaffold rails g devise:views </v>
-      </c>
-    </row>
-    <row r="36" spans="2:23">
-      <c r="C36" s="6" t="s">
+    </row>
+    <row r="44" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="2:23" ht="15" thickBot="1">
-      <c r="B38" s="6" t="s">
+    <row r="45" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="17" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="2:23" ht="15" thickBot="1">
-      <c r="C39" s="17" t="s">
+    <row r="46" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="2:23" ht="15" thickBot="1">
-      <c r="C40" s="17" t="s">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B49" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="2:23" ht="15" thickBot="1">
-      <c r="C41" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23">
-      <c r="B43" s="6" t="s">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C50" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="2:23">
-      <c r="C44" s="6" t="s">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C51" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="2:23">
-      <c r="C45" s="6" t="s">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C52" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="2:23">
-      <c r="C46" s="6" t="s">
+    <row r="54" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="17" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" ht="15" thickBot="1">
-      <c r="B48" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" ht="15" thickBot="1">
-      <c r="C49" s="17" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/r2_scaffold.xlsx
+++ b/r2_scaffold.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\@gitwork\csr2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="90" windowWidth="19395" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="r2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="120">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="3"/>
@@ -164,15 +159,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Return</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>returnDate</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>returnComment</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -661,6 +648,118 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
+    <t>済</t>
+    <rPh sb="0" eb="1">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>到着</t>
+    <rPh sb="0" eb="2">
+      <t>トウチャク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>到着日</t>
+    <rPh sb="0" eb="3">
+      <t>トウチャクビ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Arrival</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>arrivalDate</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>到着コメント</t>
+    <rPh sb="0" eb="2">
+      <t>トウチャク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>arrivalComment</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Returning</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>returningComment</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アソシエーションの定義</t>
+    <rPh sb="9" eb="11">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Userテーブルに会社</t>
+    <rPh sb="9" eb="11">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>エンジンにエンジンステータス</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">% rake db:fixtures:extract </t>
+  </si>
+  <si>
+    <t># =&gt; すべてテーブルの内容が tmp/fixtures/*.yml に抽出される</t>
+  </si>
+  <si>
+    <t>% rake db:fixtures:extract FIXTURES=entries,comments</t>
+  </si>
+  <si>
+    <t># =&gt; テーブル entries, comments の内容のみが tmp/fixtures/*.yml に抽出される</t>
+  </si>
+  <si>
+    <t>ただし、プロジェクトディレクトリ直下で実行すること！</t>
+    <rPh sb="16" eb="18">
+      <t>チョッカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rails generate migration add_enginestatus_id_to_engines </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990073"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>enginestatus_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:integer</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">rails generate migration add_company_id_to_users </t>
     </r>
@@ -680,7 +779,20 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>:</t>
+      <t>:integer</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>整備にエンジン</t>
+    <rPh sb="0" eb="2">
+      <t>セイビ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rails generate migration add_engine_id_to_repairs </t>
     </r>
     <r>
       <rPr>
@@ -689,66 +801,86 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>string</t>
+      <t>engine_id</t>
     </r>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Userテーブルの列追加(その２）</t>
-    <rPh sb="9" eb="10">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>済</t>
-    <rPh sb="0" eb="1">
-      <t>スミ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>到着</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:integer</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>エンジン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>エンジンにシリアルNo</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rails generate migration add_serialno_to_engines </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990073"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>serialno</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:string</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>今回の場合</t>
     <rPh sb="0" eb="2">
-      <t>トウチャク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>到着日</t>
-    <rPh sb="0" eb="3">
-      <t>トウチャクビ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Arrival</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>arrivalDate</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>到着コメント</t>
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>抽出</t>
     <rPh sb="0" eb="2">
-      <t>トウチャク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>arrivalComment</t>
-    <phoneticPr fontId="3"/>
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ロード</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>rake db:fixtures:extract FIXTURES=businessstatuses,companies,engines,locations,enginestatuses,users</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>rake db:fixtures:load FIXTURES=businessstatuses,companies,engines,locations,enginestatuses,users</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -834,6 +966,13 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -891,7 +1030,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -916,6 +1055,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -935,7 +1077,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -977,7 +1119,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1012,7 +1154,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1221,13 +1363,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W55"/>
+  <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="J37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="23.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
@@ -1559,7 +1701,7 @@
     <col min="16133" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -1591,23 +1733,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" s="6" customFormat="1"/>
+    <row r="3" spans="1:23">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" s="8" customFormat="1" ht="12">
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="10"/>
@@ -1625,12 +1767,12 @@
       <c r="U4" s="10"/>
       <c r="V4" s="12"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
@@ -1669,23 +1811,23 @@
         <v xml:space="preserve">rails generate scaffold Company name:string category:string </v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" s="8" customFormat="1" ht="12">
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="10"/>
@@ -1699,12 +1841,12 @@
       <c r="U6" s="10"/>
       <c r="V6" s="12"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -1751,11 +1893,11 @@
         <v xml:space="preserve">rails generate scaffold Location postcode:string address:string phoneNo:string destinationName:string </v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" s="8" customFormat="1" ht="12">
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="10"/>
@@ -1775,12 +1917,12 @@
       <c r="U8" s="10"/>
       <c r="V8" s="12"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>18</v>
@@ -1813,11 +1955,11 @@
         <v xml:space="preserve">rails generate scaffold Enginestatus name:string </v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" s="8" customFormat="1" ht="12">
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="10"/>
@@ -1837,12 +1979,12 @@
       <c r="U10" s="10"/>
       <c r="V10" s="12"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>19</v>
@@ -1875,15 +2017,15 @@
         <v xml:space="preserve">rails generate scaffold Businessstatus name:string </v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" s="8" customFormat="1" ht="12">
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="10"/>
@@ -1901,12 +2043,12 @@
       <c r="U12" s="10"/>
       <c r="V12" s="12"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>17</v>
@@ -1943,15 +2085,15 @@
         <v xml:space="preserve">rails generate scaffold Engine engineModelName:string salesModelName:string </v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" s="8" customFormat="1" ht="12">
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="10"/>
@@ -1969,25 +2111,25 @@
       <c r="U14" s="10"/>
       <c r="V14" s="12"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>1</v>
@@ -2011,31 +2153,31 @@
         <v xml:space="preserve">rails generate scaffold Enginemodel modelcode:string name:string </v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" s="13" customFormat="1" ht="12">
       <c r="F16" s="14"/>
       <c r="H16" s="14"/>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23">
       <c r="A17" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" s="8" customFormat="1" ht="12">
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="10"/>
@@ -2051,34 +2193,34 @@
       <c r="U18" s="10"/>
       <c r="V18" s="12"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="J19" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="2"/>
@@ -2094,20 +2236,20 @@
       <c r="V19" s="2"/>
       <c r="W19" s="1" t="str">
         <f>CONCATENATE($A$1,C19," ",E19,F19,G19,H19,I19,J19,K19,L19,M19,N19,O19,P19,Q19,R19,,S19,T19,U19,V19)</f>
-        <v xml:space="preserve">rails generate scaffold Return returnDate:date returnComment:text sendingComment:text </v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+        <v xml:space="preserve">rails generate scaffold Returning returnDate:date returningComment:text sendingComment:text </v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" s="8" customFormat="1" ht="12">
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="10"/>
@@ -2125,30 +2267,30 @@
       <c r="U20" s="10"/>
       <c r="V20" s="12"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23">
       <c r="A21" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="11"/>
@@ -2169,35 +2311,35 @@
         <v xml:space="preserve">rails generate scaffold Arrival arrivalDate:date arrivalComment:text </v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" s="8" customFormat="1" ht="12">
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L22" s="12"/>
       <c r="M22" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N22" s="12"/>
       <c r="O22" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P22" s="12"/>
       <c r="Q22" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R22" s="12"/>
       <c r="S22" s="10"/>
@@ -2205,58 +2347,58 @@
       <c r="U22" s="10"/>
       <c r="V22" s="12"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="I23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L23" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="M23" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q23" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="P23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="R23" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="2"/>
@@ -2267,7 +2409,7 @@
         <v xml:space="preserve">rails generate scaffold Repair issueNo:string issueDate:date arriveDate:date startDate:date finishDate:date beforeComment:text afterComment:text </v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" s="8" customFormat="1" ht="12">
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="10"/>
@@ -2289,13 +2431,13 @@
       <c r="U24" s="10"/>
       <c r="V24" s="12"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="3"/>
@@ -2321,7 +2463,7 @@
         <v xml:space="preserve">rails generate scaffold Repairorder </v>
       </c>
     </row>
-    <row r="26" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" s="8" customFormat="1" ht="12">
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="10"/>
@@ -2343,9 +2485,9 @@
       <c r="U26" s="10"/>
       <c r="V26" s="12"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23">
       <c r="A27" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="4"/>
@@ -2373,7 +2515,7 @@
         <v xml:space="preserve">rails generate scaffold  </v>
       </c>
     </row>
-    <row r="28" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" s="8" customFormat="1" ht="12">
       <c r="C28" s="9"/>
       <c r="D28" s="9" t="s">
         <v>0</v>
@@ -2397,13 +2539,13 @@
       <c r="U28" s="10"/>
       <c r="V28" s="12"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23">
       <c r="A29" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>0</v>
@@ -2431,7 +2573,7 @@
         <v xml:space="preserve">rails generate scaffold Shipping </v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="4"/>
@@ -2458,7 +2600,7 @@
       <c r="V30" s="2"/>
       <c r="W30" s="8"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="4"/>
@@ -2486,7 +2628,7 @@
         <v xml:space="preserve">rails generate scaffold  </v>
       </c>
     </row>
-    <row r="32" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" s="8" customFormat="1" ht="12">
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
@@ -2508,7 +2650,7 @@
       <c r="U32" s="10"/>
       <c r="V32" s="12"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="4"/>
@@ -2536,7 +2678,7 @@
         <v xml:space="preserve">rails generate scaffold  </v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" s="8" customFormat="1" ht="12">
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
@@ -2558,7 +2700,7 @@
       <c r="U34" s="10"/>
       <c r="V34" s="12"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="4"/>
@@ -2586,7 +2728,7 @@
         <v xml:space="preserve">rails generate scaffold  </v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="4"/>
@@ -2611,7 +2753,7 @@
       <c r="V36" s="2"/>
       <c r="W36" s="8"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23">
       <c r="D37" s="6" t="s">
         <v>0</v>
       </c>
@@ -2620,95 +2762,167 @@
         <v xml:space="preserve">rails generate scaffold  </v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23">
       <c r="A38" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>0</v>
       </c>
       <c r="W38" s="13"/>
     </row>
-    <row r="39" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" ht="15" thickBot="1">
       <c r="B39" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="W39" s="6" t="str">
+        <f>CONCATENATE($A$1,C40," ",E39,F39,G39,H39,I39,J39,K39,L39,M39,N39,O39,P39,Q39,R39,,S39,T39,U39,V39)</f>
+        <v xml:space="preserve">rails generate scaffold rails generate devise:install </v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="15" thickBot="1">
+      <c r="C40" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="18" thickBot="1">
+      <c r="C41" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="K41" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:23" ht="17.25">
+      <c r="C42" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="W39" s="6" t="str">
-        <f>CONCATENATE($A$1,C39," ",E39,F39,G39,H39,I39,J39,K39,L39,M39,N39,O39,P39,Q39,R39,,S39,T39,U39,V39)</f>
-        <v xml:space="preserve">rails generate scaffold rails generate devise:install </v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="16" t="s">
+      <c r="K42" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="W42" s="6" t="str">
+        <f>CONCATENATE($A$1,C42," ",E42,F42,G42,H42,I42,J42,K42,L42,M42,N42,O42,P42,Q42,R42,,S42,T42,U42,V42)</f>
+        <v>rails generate scaffold rails g devise:views # =&gt; すべてテーブルの内容が tmp/fixtures/*.yml に抽出される</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="17.25">
+      <c r="C43" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="W40" s="13"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="C41" s="6" t="s">
+      <c r="K43" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="17.25">
+      <c r="K44" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="15" thickBot="1">
+      <c r="B45" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="W41" s="6" t="str">
-        <f>CONCATENATE($A$1,C41," ",E41,F41,G41,H41,I41,J41,K41,L41,M41,N41,O41,P41,Q41,R41,,S41,T41,U41,V41)</f>
-        <v xml:space="preserve">rails generate scaffold rails g devise:views </v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="C42" s="6" t="s">
+      <c r="K45" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="15" thickBot="1">
+      <c r="C46" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="6" t="s">
+    <row r="47" spans="1:23" ht="15" thickBot="1">
+      <c r="C47" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="15" thickBot="1">
+      <c r="C48" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="17" t="s">
+    <row r="49" spans="1:11">
+      <c r="K49" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="17.25">
+      <c r="B50" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K50" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="C51" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B49" s="6" t="s">
+    <row r="52" spans="1:11">
+      <c r="C52" s="6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C50" s="6" t="s">
+      <c r="K52" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="17.25">
+      <c r="C53" s="6" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C51" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C52" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="17" t="s">
-        <v>93</v>
+      <c r="K53" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15" thickBot="1">
+      <c r="B56" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="15" thickBot="1">
+      <c r="C57" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15" thickBot="1">
+      <c r="B58" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15" thickBot="1">
+      <c r="C59" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="15" thickBot="1">
+      <c r="B60" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15" thickBot="1">
+      <c r="C61" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" ht="15" thickBot="1">
+      <c r="B65" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" ht="15" thickBot="1">
+      <c r="C66" s="17" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/r2_scaffold.xlsx
+++ b/r2_scaffold.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="123">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="3"/>
@@ -874,6 +874,47 @@
   <si>
     <t>rake db:fixtures:load FIXTURES=businessstatuses,companies,engines,locations,enginestatuses,users</t>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>エンジンに会社</t>
+    <rPh sb="5" eb="7">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rails generate migration add_company_id_to_engines </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990073"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>company_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:integer</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>属性の追加</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1030,7 +1071,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1056,6 +1097,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1363,10 +1407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W66"/>
+  <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2915,13 +2959,43 @@
         <v>111</v>
       </c>
     </row>
-    <row r="65" spans="2:3" ht="15" thickBot="1">
-      <c r="B65" s="6" t="s">
+    <row r="62" spans="1:11" ht="15" thickBot="1">
+      <c r="B62" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15" thickBot="1">
+      <c r="C63" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="C64" s="19"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="C65" s="19"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="C66" s="19"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="C67" s="19"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="C68" s="19"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15" thickBot="1">
+      <c r="B70" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="2:3" ht="15" thickBot="1">
-      <c r="C66" s="17" t="s">
+    <row r="71" spans="1:3" ht="15" thickBot="1">
+      <c r="C71" s="17" t="s">
         <v>114</v>
       </c>
     </row>

--- a/r2_scaffold.xlsx
+++ b/r2_scaffold.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="132">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="3"/>
@@ -915,6 +915,95 @@
       <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>返却にいくつか項目追加</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>注文No</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>工事No</t>
+    <rPh sb="0" eb="2">
+      <t>コウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>他社品仕入日</t>
+    <rPh sb="0" eb="2">
+      <t>タシャ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>orderNo</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>constructionNo</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>otherBrandPartsArrivealDate</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>整備発注にエンジン</t>
+    <rPh sb="0" eb="2">
+      <t>セイビ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハッチュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rails generate migration add_engine_id_to_repairorder </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990073"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>engine_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:integer</t>
+    </r>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -1015,7 +1104,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1037,6 +1126,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,7 +1166,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1102,6 +1197,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1407,10 +1506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W71"/>
+  <dimension ref="A1:AK74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:XFD64"/>
+    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2202,14 +2301,14 @@
       <c r="H16" s="14"/>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:37">
       <c r="A17" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" s="8" customFormat="1" ht="12">
+    <row r="18" spans="1:37" s="8" customFormat="1" ht="12">
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="10" t="s">
@@ -2237,7 +2336,7 @@
       <c r="U18" s="10"/>
       <c r="V18" s="12"/>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:37">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -2283,7 +2382,7 @@
         <v xml:space="preserve">rails generate scaffold Returning returnDate:date returningComment:text sendingComment:text </v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="8" customFormat="1" ht="12">
+    <row r="20" spans="1:37" s="8" customFormat="1" ht="12">
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
         <v>0</v>
@@ -2311,7 +2410,7 @@
       <c r="U20" s="10"/>
       <c r="V20" s="12"/>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:37">
       <c r="A21" s="1" t="s">
         <v>92</v>
       </c>
@@ -2355,17 +2454,17 @@
         <v xml:space="preserve">rails generate scaffold Arrival arrivalDate:date arrivalComment:text </v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="8" customFormat="1" ht="12">
+    <row r="22" spans="1:37" s="8" customFormat="1" ht="12">
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="10" t="s">
+      <c r="F22" s="21"/>
+      <c r="G22" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="11"/>
+      <c r="H22" s="21"/>
       <c r="I22" s="10" t="s">
         <v>63</v>
       </c>
@@ -2391,7 +2490,7 @@
       <c r="U22" s="10"/>
       <c r="V22" s="12"/>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:37">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -2402,16 +2501,16 @@
         <v>35</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="23" t="s">
         <v>43</v>
       </c>
       <c r="I23" s="3" t="s">
@@ -2453,29 +2552,59 @@
         <v xml:space="preserve">rails generate scaffold Repair issueNo:string issueDate:date arriveDate:date startDate:date finishDate:date beforeComment:text afterComment:text </v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="8" customFormat="1" ht="12">
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
+    <row r="24" spans="1:37" s="8" customFormat="1">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="F24" s="11"/>
-      <c r="G24" s="10"/>
+      <c r="G24" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="H24" s="11"/>
-      <c r="I24" s="10"/>
+      <c r="I24" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="J24" s="11"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="12"/>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="K24" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L24" s="11"/>
+      <c r="M24" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="N24" s="11"/>
+      <c r="O24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="R24" s="11"/>
+      <c r="S24" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="T24" s="2"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="2"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+    </row>
+    <row r="25" spans="1:37">
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
@@ -2483,53 +2612,113 @@
       <c r="C25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="2"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U25" s="10"/>
+      <c r="V25" s="12"/>
       <c r="W25" s="1" t="str">
         <f>CONCATENATE($A$1,C25," ",E25,F25,G25,H25,I25,J25,K25,L25,M25,N25,O25,P25,Q25,R25,,S25,T25,U25,V25)</f>
-        <v xml:space="preserve">rails generate scaffold Repairorder </v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" s="8" customFormat="1" ht="12">
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="12"/>
-    </row>
-    <row r="27" spans="1:23">
+        <v xml:space="preserve">rails generate scaffold Repairorder issueNo:string issueDate:date orderNo:string constructionNo:string otherBrandPartsArrivealDate:date returnDate:date returningComment:text sendingComment:text </v>
+      </c>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+    </row>
+    <row r="26" spans="1:37" s="8" customFormat="1">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="2"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+    </row>
+    <row r="27" spans="1:37">
       <c r="A27" s="1" t="s">
         <v>74</v>
       </c>
@@ -2554,12 +2743,9 @@
       <c r="T27" s="2"/>
       <c r="U27" s="3"/>
       <c r="V27" s="2"/>
-      <c r="W27" s="1" t="str">
-        <f>CONCATENATE($A$1,C27," ",E27,F27,G27,H27,I27,J27,K27,L27,M27,N27,O27,P27,Q27,R27,,S27,T27,U27,V27)</f>
-        <v xml:space="preserve">rails generate scaffold  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" s="8" customFormat="1" ht="12">
+      <c r="W27" s="8"/>
+    </row>
+    <row r="28" spans="1:37" s="8" customFormat="1">
       <c r="C28" s="9"/>
       <c r="D28" s="9" t="s">
         <v>0</v>
@@ -2582,8 +2768,12 @@
       <c r="T28" s="12"/>
       <c r="U28" s="10"/>
       <c r="V28" s="12"/>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="W28" s="1" t="str">
+        <f>CONCATENATE($A$1,C28," ",E28,F28,G28,H28,I28,J28,K28,L28,M28,N28,O28,P28,Q28,R28,,S28,T28,U28,V28)</f>
+        <v xml:space="preserve">rails generate scaffold  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:37">
       <c r="A29" s="1" t="s">
         <v>73</v>
       </c>
@@ -2612,12 +2802,9 @@
       <c r="T29" s="2"/>
       <c r="U29" s="3"/>
       <c r="V29" s="2"/>
-      <c r="W29" s="1" t="str">
-        <f>CONCATENATE($A$1,C29," ",E29,F29,G29,H29,I29,J29,K29,L29,M29,N29,O29,P29,Q29,R29,,S29,T29,U29,V29)</f>
-        <v xml:space="preserve">rails generate scaffold Shipping </v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="W29" s="8"/>
+    </row>
+    <row r="30" spans="1:37">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="4"/>
@@ -2642,9 +2829,12 @@
       <c r="T30" s="2"/>
       <c r="U30" s="3"/>
       <c r="V30" s="2"/>
-      <c r="W30" s="8"/>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="W30" s="1" t="str">
+        <f>CONCATENATE($A$1,C30," ",E30,F30,G30,H30,I30,J30,K30,L30,M30,N30,O30,P30,Q30,R30,,S30,T30,U30,V30)</f>
+        <v xml:space="preserve">rails generate scaffold  </v>
+      </c>
+    </row>
+    <row r="31" spans="1:37">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="4"/>
@@ -2667,12 +2857,9 @@
       <c r="T31" s="2"/>
       <c r="U31" s="3"/>
       <c r="V31" s="2"/>
-      <c r="W31" s="1" t="str">
-        <f>CONCATENATE($A$1,C31," ",E31,F31,G31,H31,I31,J31,K31,L31,M31,N31,O31,P31,Q31,R31,,S31,T31,U31,V31)</f>
-        <v xml:space="preserve">rails generate scaffold  </v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" s="8" customFormat="1" ht="12">
+      <c r="W31" s="8"/>
+    </row>
+    <row r="32" spans="1:37" s="8" customFormat="1">
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
@@ -2693,6 +2880,10 @@
       <c r="T32" s="12"/>
       <c r="U32" s="10"/>
       <c r="V32" s="12"/>
+      <c r="W32" s="1" t="str">
+        <f>CONCATENATE($A$1,C32," ",E32,F32,G32,H32,I32,J32,K32,L32,M32,N32,O32,P32,Q32,R32,,S32,T32,U32,V32)</f>
+        <v xml:space="preserve">rails generate scaffold  </v>
+      </c>
     </row>
     <row r="33" spans="1:23">
       <c r="A33" s="1"/>
@@ -2717,12 +2908,9 @@
       <c r="T33" s="2"/>
       <c r="U33" s="3"/>
       <c r="V33" s="2"/>
-      <c r="W33" s="1" t="str">
-        <f>CONCATENATE($A$1,C33," ",E33,F33,G33,H33,I33,J33,K33,L33,M33,N33,O33,P33,Q33,R33,,S33,T33,U33,V33)</f>
-        <v xml:space="preserve">rails generate scaffold  </v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" s="8" customFormat="1" ht="12">
+      <c r="W33" s="8"/>
+    </row>
+    <row r="34" spans="1:23" s="8" customFormat="1">
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
@@ -2743,6 +2931,10 @@
       <c r="T34" s="12"/>
       <c r="U34" s="10"/>
       <c r="V34" s="12"/>
+      <c r="W34" s="1" t="str">
+        <f>CONCATENATE($A$1,C34," ",E34,F34,G34,H34,I34,J34,K34,L34,M34,N34,O34,P34,Q34,R34,,S34,T34,U34,V34)</f>
+        <v xml:space="preserve">rails generate scaffold  </v>
+      </c>
     </row>
     <row r="35" spans="1:23">
       <c r="A35" s="1"/>
@@ -2767,10 +2959,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="3"/>
       <c r="V35" s="2"/>
-      <c r="W35" s="1" t="str">
-        <f>CONCATENATE($A$1,C35," ",E35,F35,G35,H35,I35,J35,K35,L35,M35,N35,O35,P35,Q35,R35,,S35,T35,U35,V35)</f>
-        <v xml:space="preserve">rails generate scaffold  </v>
-      </c>
+      <c r="W35" s="8"/>
     </row>
     <row r="36" spans="1:23">
       <c r="A36" s="1"/>
@@ -2795,16 +2984,16 @@
       <c r="T36" s="2"/>
       <c r="U36" s="3"/>
       <c r="V36" s="2"/>
-      <c r="W36" s="8"/>
+      <c r="W36" s="1" t="str">
+        <f>CONCATENATE($A$1,C36," ",E36,F36,G36,H36,I36,J36,K36,L36,M36,N36,O36,P36,Q36,R36,,S36,T36,U36,V36)</f>
+        <v xml:space="preserve">rails generate scaffold  </v>
+      </c>
     </row>
     <row r="37" spans="1:23">
       <c r="D37" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="W37" s="6" t="str">
-        <f>CONCATENATE($A$1,C37," ",E37,F37,G37,H37,I37,J37,K37,L37,M37,N37,O37,P37,Q37,R37,,S37,T37,U37,V37)</f>
-        <v xml:space="preserve">rails generate scaffold  </v>
-      </c>
+      <c r="W37" s="8"/>
     </row>
     <row r="38" spans="1:23">
       <c r="A38" s="7" t="s">
@@ -2813,22 +3002,26 @@
       <c r="D38" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="W38" s="13"/>
+      <c r="W38" s="6" t="str">
+        <f>CONCATENATE($A$1,C38," ",E38,F38,G38,H38,I38,J38,K38,L38,M38,N38,O38,P38,Q38,R38,,S38,T38,U38,V38)</f>
+        <v xml:space="preserve">rails generate scaffold  </v>
+      </c>
     </row>
     <row r="39" spans="1:23" ht="15" thickBot="1">
       <c r="B39" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="W39" s="6" t="str">
-        <f>CONCATENATE($A$1,C40," ",E39,F39,G39,H39,I39,J39,K39,L39,M39,N39,O39,P39,Q39,R39,,S39,T39,U39,V39)</f>
-        <v xml:space="preserve">rails generate scaffold rails generate devise:install </v>
-      </c>
+      <c r="W39" s="13"/>
     </row>
     <row r="40" spans="1:23" ht="15" thickBot="1">
       <c r="C40" s="16" t="s">
         <v>79</v>
       </c>
+      <c r="W40" s="6" t="str">
+        <f>CONCATENATE($A$1,C41," ",E40,F40,G40,H40,I40,J40,K40,L40,M40,N40,O40,P40,Q40,R40,,S40,T40,U40,V40)</f>
+        <v xml:space="preserve">rails generate scaffold rails generate devise User </v>
+      </c>
     </row>
     <row r="41" spans="1:23" ht="18" thickBot="1">
       <c r="C41" s="16" t="s">
@@ -2969,11 +3162,16 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" ht="15" thickBot="1">
+      <c r="B64" s="6" t="s">
+        <v>130</v>
+      </c>
       <c r="C64" s="19"/>
     </row>
-    <row r="65" spans="1:3">
-      <c r="C65" s="19"/>
+    <row r="65" spans="1:3" ht="15" thickBot="1">
+      <c r="C65" s="17" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="66" spans="1:3">
       <c r="C66" s="19"/>
@@ -2996,6 +3194,16 @@
     </row>
     <row r="71" spans="1:3" ht="15" thickBot="1">
       <c r="C71" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15" thickBot="1">
+      <c r="B73" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15" thickBot="1">
+      <c r="C74" s="17" t="s">
         <v>114</v>
       </c>
     </row>
